--- a/biology/Zoologie/Desman/Desman.xlsx
+++ b/biology/Zoologie/Desman/Desman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Desmanini, Desmaninae · Desmans
-Les desmans (/dɛ.smɑ̃/[1],[2] ; Desmanini ou Desmaninae)  sont des mammifères soricomorphes appartenant à la famille des Talpidés (Talpidae)[3]. Ce sont des animaux insectivores qui ressemblent à des taupes, mais dotés d'une trompe et adaptés à la vie aquatique. Il n'en reste que deux espèces, menacées de disparition.
+Les desmans (/dɛ.smɑ̃/, ; Desmanini ou Desmaninae)  sont des mammifères soricomorphes appartenant à la famille des Talpidés (Talpidae). Ce sont des animaux insectivores qui ressemblent à des taupes, mais dotés d'une trompe et adaptés à la vie aquatique. Il n'en reste que deux espèces, menacées de disparition.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les desmans ont pour caractéristiques communes d'être de petits mammifères aquatiques ou semi-aquatiques ayant adopté un régime alimentaire insectivore.
 Dans leur morphologie particulière, on peut remarquer leur formidable aptitude à nager conférée par des pattes palmées, contrairement aux taupes qui utilisent leurs pattes avant pour creuser. Pour nager, les desmans utilisent leurs pattes arrière comme des pagaies à la fois pour se propulser et se diriger, complétées par une longue queue qui sert de gouvernail. Ils ont également pour caractéristique d'être pourvus d'une trompe préhensile à la place du nez. Cet appendice nasal sur-développé compense leur très mauvaise vue : il leur sert de pelle, de nez et de radar, car ils passent la majeure partie de leur temps à chercher des insectes, des larves et des œufs de poissons en remuant le fond de l'eau.
@@ -546,21 +560,92 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Desmaninae et la tribu des Desmanini ont été décrites pour la première fois en 1912, par le zoologiste britannique Michael Rogers Oldfield Thomas (1858-1929).
-Au XXIe siècle, les spécialistes hésitent encore sur leur classification. Les desmans sont ainsi parfois encore considérés comme formant une famille distincte des taupes, les Desmanidae ou bien une sous-famille des Talpidés, les Desmaninae, mais les classifications récentes privilégient plutôt la tribu des Desmanini dans la sous-famille des Talpinae[4],[5].
-Classification plus détaillée selon le Système d'information taxonomique intégré (SITI ou ITIS en anglais) : Règne : Animalia ; sous-règne : Bilateria ; infra-règne : Deuterostomia ; Embranchement : Chordata ; Sous-embranchement : Vertebrata ; infra-embranchement : Gnathostomata ; super-classe : Tetrapoda ; Classe : Mammalia ; Sous-classe : Theria ; infra-classe : Eutheria ; ordre : Soricomorpha ; famille des Talpidae ; sous-famille des Talpinae[6].
-Traditionnellement, les espèces de cette famille sont classées dans l'ordre des Insectivora, un regroupement qui est progressivement abandonné au XXIe siècle[7].
-Liste de genres et espèces actuels
-La sous-famille des desmans comprend deux genres (chacun d'une seule espèce), selon Mammal Species of the World (version 3, 2005)  (2 mars 2015)[8] et ITIS      (2 mars 2015)[9]:
+Au XXIe siècle, les spécialistes hésitent encore sur leur classification. Les desmans sont ainsi parfois encore considérés comme formant une famille distincte des taupes, les Desmanidae ou bien une sous-famille des Talpidés, les Desmaninae, mais les classifications récentes privilégient plutôt la tribu des Desmanini dans la sous-famille des Talpinae,.
+Classification plus détaillée selon le Système d'information taxonomique intégré (SITI ou ITIS en anglais) : Règne : Animalia ; sous-règne : Bilateria ; infra-règne : Deuterostomia ; Embranchement : Chordata ; Sous-embranchement : Vertebrata ; infra-embranchement : Gnathostomata ; super-classe : Tetrapoda ; Classe : Mammalia ; Sous-classe : Theria ; infra-classe : Eutheria ; ordre : Soricomorpha ; famille des Talpidae ; sous-famille des Talpinae.
+Traditionnellement, les espèces de cette famille sont classées dans l'ordre des Insectivora, un regroupement qui est progressivement abandonné au XXIe siècle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Desman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Desman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste de genres et espèces actuels</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La sous-famille des desmans comprend deux genres (chacun d'une seule espèce), selon Mammal Species of the World (version 3, 2005)  (2 mars 2015) et ITIS      (2 mars 2015):
 genre Desmana Güldenstädt, 1777
 Desmana moschata (Linnaeus, 1758) – Desman de Russie (parfois appelé desman de Moscovie)
 genre Galemys Kaup, 1829
-Galemys pyrenaicus (É. Geoffroy Saint-Hilaire, 1811) – Desman des Pyrénées
-Liste des genres et espèces connus
-La plupart des espèces ont disparu et ne sont connues que par des restes fossiles.
-Selon Paleobiology Database                   (24 février 2015)[10] :
+Galemys pyrenaicus (É. Geoffroy Saint-Hilaire, 1811) – Desman des Pyrénées</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Desman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Desman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres et espèces connus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des espèces ont disparu et ne sont connues que par des restes fossiles.
+Selon Paleobiology Database                   (24 février 2015) :
 genre Archaeodesmana Topachevski and Pashkov 1983 (éteint)
 † Archaeodesmana adroveri
 † Archaeodesmana baetica
